--- a/backend/zim_staff_bulk_upload3.xlsx
+++ b/backend/zim_staff_bulk_upload3.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -493,94 +493,94 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Nqobile</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mukoko</t>
+          <t>Khumalo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>nqobile.mukoko@university.ac.zw</t>
+          <t>brighton.khumalo@university.ac.zw</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>+263 77 795 5879</t>
+          <t>+263 77 495 8976</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>STFKW-2020-3018</t>
+          <t>STFKW-2022-1914</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Professor</t>
+          <t>Assistant</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>PhD</t>
+          <t>Certificate</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Faculty of Science</t>
+          <t>Faculty of Engineering</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Computer Engineering</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Conservation officer, historic buildings</t>
+          <t>Engineer, civil (consulting)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2022-10-04</t>
+          <t>2022-04-24</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tendai</t>
+          <t>Memory</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mupezeni</t>
+          <t>Khumalo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>tendai.mupezeni@university.ac.zw</t>
+          <t>memory.khumalo@university.ac.zw</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>+263 73 391 5088</t>
+          <t>+263 71 713 7065</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>STFKW-2022-1670</t>
+          <t>STFKW-2021-9823</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Professor</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Diploma</t>
+          <t>PhD</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -595,39 +595,39 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Lobbyist</t>
+          <t>Records manager</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2021-03-05</t>
+          <t>2021-11-16</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Patience</t>
+          <t>Blessing</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Moyo</t>
+          <t>Mhere</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>patience.moyo@university.ac.zw</t>
+          <t>blessing.mhere@university.ac.zw</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>+263 78 620 7371</t>
+          <t>+263 77 205 2156</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>STFKW-2025-9528</t>
+          <t>STFKW-2024-6227</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -637,168 +637,168 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>PhD</t>
+          <t>Diploma</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Faculty of Arts</t>
+          <t>Faculty of Engineering</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>English Literature</t>
+          <t>Electrical Engineering</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>General practice doctor</t>
+          <t>Sound technician, broadcasting/film/video</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2021-02-27</t>
+          <t>2024-02-13</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Takesure</t>
+          <t>Ngonidzashe</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mhere</t>
+          <t>Moyo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>takesure.mhere@university.ac.zw</t>
+          <t>ngonidzashe.moyo@university.ac.zw</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>+263 77 713 2465</t>
+          <t>+263 71 121 5345</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>STFKW-2024-1971</t>
+          <t>STFKW-2020-7384</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Lecturer</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Diploma</t>
+          <t>PhD</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Faculty of Science</t>
+          <t>Faculty of Arts</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Biology</t>
+          <t>Philosophy</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Clinical molecular geneticist</t>
+          <t>Rural practice surveyor</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2022-08-18</t>
+          <t>2021-04-13</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Patience</t>
+          <t>Langa</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Phiri</t>
+          <t>Mugabe</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>patience.phiri@university.ac.zw</t>
+          <t>langa.mugabe@university.ac.zw</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>+263 73 423 7503</t>
+          <t>+263 77 144 4650</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>STFKW-2025-5721</t>
+          <t>STFKW-2020-8200</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Assistant</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Bachelors</t>
+          <t>Masters</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Faculty of Commerce</t>
+          <t>Faculty of Engineering</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Accounting</t>
+          <t>Mechanical Engineering</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Scientist, biomedical</t>
+          <t>Immigration officer</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2025-10-08</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Terrence</t>
+          <t>Nyasha</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Chikara</t>
+          <t>Sibanda</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>terrence.chikara@university.ac.zw</t>
+          <t>nyasha.sibanda@university.ac.zw</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>+263 77 244 1056</t>
+          <t>+263 78 817 1608</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>STFKW-2023-7363</t>
+          <t>STFKW-2020-1501</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -808,121 +808,121 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>PhD</t>
+          <t>Diploma</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Faculty of Arts</t>
+          <t>Faculty of Science</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Shona &amp; Ndebele Studies</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>TEFL teacher</t>
+          <t>Chemist, analytical</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2021-09-13</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Patience</t>
+          <t>Munyaradzi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Mutasa</t>
+          <t>Hove</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>patience.mutasa@university.ac.zw</t>
+          <t>munyaradzi.hove@university.ac.zw</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>+263 77 803 8820</t>
+          <t>+263 78 164 9284</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>STFKW-2022-8357</t>
+          <t>STFKW-2025-2530</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Assistant</t>
+          <t>Professor</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Diploma</t>
+          <t>Masters</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Faculty of Engineering</t>
+          <t>Faculty of Science</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Mechanical Engineering</t>
+          <t>Mathematics</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Private music teacher</t>
+          <t>Surveyor, hydrographic</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2023-12-15</t>
+          <t>2020-03-07</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Tapiwa</t>
+          <t>Patience</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Hove</t>
+          <t>Marufu</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>tapiwa.hove@university.ac.zw</t>
+          <t>patience.marufu@university.ac.zw</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>+263 77 771 2850</t>
+          <t>+263 73 522 8273</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>STFKW-2020-2835</t>
+          <t>STFKW-2025-2345</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Professor</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>PhD</t>
+          <t>Diploma</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -932,54 +932,54 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Mathematics</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Marine scientist</t>
+          <t>Ranger/warden</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2021-04-05</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Langa</t>
+          <t>Busisiwe</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Zhou</t>
+          <t>Sibanda</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>langa.zhou@university.ac.zw</t>
+          <t>busisiwe.sibanda@university.ac.zw</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>+263 71 927 5619</t>
+          <t>+263 71 632 7608</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>STFKW-2023-2007</t>
+          <t>STFKW-2024-3760</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Admin</t>
+          <t>Assistant</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>PhD</t>
+          <t>Masters</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -989,44 +989,44 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Psychology of Education</t>
+          <t>Early Childhood Development</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Multimedia programmer</t>
+          <t>Conservator, museum/gallery</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2022-03-20</t>
+          <t>2022-02-07</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Blessing</t>
+          <t>Ngonidzashe</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Mukoko</t>
+          <t>Sibanda</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>blessing.mukoko@university.ac.zw</t>
+          <t>ngonidzashe.sibanda@university.ac.zw</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>+263 77 276 4396</t>
+          <t>+263 73 201 4418</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>STFKW-2024-1858</t>
+          <t>STFKW-2024-6912</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1036,116 +1036,116 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>PhD</t>
+          <t>Diploma</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Faculty of Education</t>
+          <t>Faculty of Commerce</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Psychology of Education</t>
+          <t>Business Management</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Training and development officer</t>
+          <t>Tax adviser</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2024-06-08</t>
+          <t>2021-06-16</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Terrence</t>
+          <t>Beauty</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Gumbo</t>
+          <t>Mugabe</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>terrence.gumbo@university.ac.zw</t>
+          <t>beauty.mugabe@university.ac.zw</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>+263 73 884 9877</t>
+          <t>+263 77 380 1096</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>STFKW-2020-3594</t>
+          <t>STFKW-2021-1904</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Lecturer</t>
+          <t>Professor</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Diploma</t>
+          <t>Bachelors</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Faculty of Engineering</t>
+          <t>Faculty of Commerce</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Electrical Engineering</t>
+          <t>Accounting</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Publishing copy</t>
+          <t>Patent examiner</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2023-04-29</t>
+          <t>2020-12-15</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Patience</t>
+          <t>Munyaradzi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Gumbo</t>
+          <t>Chigumba</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>patience.gumbo@university.ac.zw</t>
+          <t>munyaradzi.chigumba@university.ac.zw</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>+263 73 704 5664</t>
+          <t>+263 78 354 2680</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>STFKW-2024-7581</t>
+          <t>STFKW-2022-9717</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Assistant</t>
+          <t>Lecturer</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1160,49 +1160,49 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Electrical Engineering</t>
+          <t>Mechanical Engineering</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Scientist, water quality</t>
+          <t>Race relations officer</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2024-02-20</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Anesu</t>
+          <t>Patience</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Marufu</t>
+          <t>Chigumba</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>anesu.marufu@university.ac.zw</t>
+          <t>patience.chigumba@university.ac.zw</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>+263 78 911 3109</t>
+          <t>+263 78 396 1971</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>STFKW-2022-7343</t>
+          <t>STFKW-2020-7196</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Professor</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1212,371 +1212,371 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Faculty of Science</t>
+          <t>Faculty of Arts</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Physics</t>
+          <t>Philosophy</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Stage manager</t>
+          <t>Housing manager/officer</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2020-06-23</t>
+          <t>2022-12-21</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Rutendo</t>
+          <t>Patience</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Mukoko</t>
+          <t>Ndlovu</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>rutendo.mukoko@university.ac.zw</t>
+          <t>patience.ndlovu@university.ac.zw</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>+263 71 597 6110</t>
+          <t>+263 78 884 8843</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>STFKW-2024-1402</t>
+          <t>STFKW-2021-3314</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Lecturer</t>
+          <t>Admin</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Bachelors</t>
+          <t>PhD</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Faculty of Commerce</t>
+          <t>Faculty of Engineering</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Economics</t>
+          <t>Civil Engineering</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Scientist, research (physical sciences)</t>
+          <t>Administrator, sports</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>2025-11-09</t>
+          <t>2024-11-11</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Anesu</t>
+          <t>Nqobile</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Zhou</t>
+          <t>Moyo</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>anesu.zhou@university.ac.zw</t>
+          <t>nqobile.moyo@university.ac.zw</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>+263 77 899 7128</t>
+          <t>+263 73 658 2505</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>STFKW-2024-1295</t>
+          <t>STFKW-2025-5857</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Assistant</t>
+          <t>Admin</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Certificate</t>
+          <t>Diploma</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Faculty of Commerce</t>
+          <t>Faculty of Engineering</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Accounting</t>
+          <t>Civil Engineering</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Comptroller</t>
+          <t>Nature conservation officer</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-06-13</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Beauty</t>
+          <t>Farai</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Mugabe</t>
+          <t>Maphosa</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>beauty.mugabe@university.ac.zw</t>
+          <t>farai.maphosa@university.ac.zw</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>+263 71 248 9013</t>
+          <t>+263 73 829 7414</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>STFKW-2023-4954</t>
+          <t>STFKW-2021-4582</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Professor</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>PhD</t>
+          <t>Masters</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Faculty of Science</t>
+          <t>Faculty of Education</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Physics</t>
+          <t>Psychology of Education</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Doctor, hospital</t>
+          <t>Insurance account manager</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2023-08-01</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Takesure</t>
+          <t>Beauty</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Mhere</t>
+          <t>Maphosa</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>takesure.mhere1@university.ac.zw</t>
+          <t>beauty.maphosa@university.ac.zw</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>+263 77 600 2248</t>
+          <t>+263 71 525 3751</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>STFKW-2022-4837</t>
+          <t>STFKW-2020-4098</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Professor</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Diploma</t>
+          <t>Bachelors</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Faculty of Arts</t>
+          <t>Faculty of Science</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Shona &amp; Ndebele Studies</t>
+          <t>Chemistry</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Architectural technologist</t>
+          <t>Optometrist</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2021-02-12</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Gamuchirai</t>
+          <t>Brian</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Hove</t>
+          <t>Mpofu</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>gamuchirai.hove@university.ac.zw</t>
+          <t>brian.mpofu@university.ac.zw</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>+263 71 265 9467</t>
+          <t>+263 78 473 6919</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>STFKW-2021-1951</t>
+          <t>STFKW-2020-6136</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Assistant</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Diploma</t>
+          <t>Masters</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Faculty of Commerce</t>
+          <t>Faculty of Education</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Economics</t>
+          <t>Early Childhood Development</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Therapist, art</t>
+          <t>Petroleum engineer</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>2025-01-02</t>
+          <t>2022-03-31</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Busisiwe</t>
+          <t>Kudzai</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Ndlovu</t>
+          <t>Banda</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>busisiwe.ndlovu@university.ac.zw</t>
+          <t>kudzai.banda@university.ac.zw</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>+263 71 966 6807</t>
+          <t>+263 73 748 9640</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>STFKW-2021-8432</t>
+          <t>STFKW-2025-6751</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Lecturer</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Masters</t>
+          <t>Bachelors</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Faculty of Arts</t>
+          <t>Faculty of Education</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>History</t>
+          <t>Psychology of Education</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Proofreader</t>
+          <t>Designer, multimedia</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>2021-12-25</t>
+          <t>2021-12-18</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Blessing</t>
+          <t>Prosper</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1586,84 +1586,84 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>blessing.mutasa@university.ac.zw</t>
+          <t>prosper.mutasa@university.ac.zw</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>+263 77 237 4490</t>
+          <t>+263 78 315 4820</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>STFKW-2020-3847</t>
+          <t>STFKW-2022-6813</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Lecturer</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Masters</t>
+          <t>PhD</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Faculty of Commerce</t>
+          <t>Faculty of Engineering</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Banking and Finance</t>
+          <t>Civil Engineering</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Designer, multimedia</t>
+          <t>Restaurant manager, fast food</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>2020-07-28</t>
+          <t>2025-03-27</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Memory</t>
+          <t>Knowledge</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Shumba</t>
+          <t>Khumalo</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>memory.shumba@university.ac.zw</t>
+          <t>knowledge.khumalo@university.ac.zw</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>+263 73 586 4235</t>
+          <t>+263 73 332 6948</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>STFKW-2025-9626</t>
+          <t>STFKW-2025-7659</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Admin</t>
+          <t>Professor</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Diploma</t>
+          <t>Bachelors</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1678,106 +1678,106 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Surveyor, commercial/residential</t>
+          <t>Production designer, theatre/television/film</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2023-12-28</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Prosper</t>
+          <t>Kudzai</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Gwatidzo</t>
+          <t>Chikara</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>prosper.gwatidzo@university.ac.zw</t>
+          <t>kudzai.chikara@university.ac.zw</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>+263 71 616 4782</t>
+          <t>+263 78 565 7585</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>STFKW-2021-2166</t>
+          <t>STFKW-2021-8748</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Professor</t>
+          <t>Lecturer</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>PhD</t>
+          <t>Diploma</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Faculty of Commerce</t>
+          <t>Faculty of Science</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Business Management</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Trade union research officer</t>
+          <t>Trade mark attorney</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-10-01</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Ngonidzashe</t>
+          <t>Tatenda</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Phiri</t>
+          <t>Ncube</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ngonidzashe.phiri@university.ac.zw</t>
+          <t>tatenda.ncube@university.ac.zw</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>+263 73 630 4227</t>
+          <t>+263 77 346 6594</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>STFKW-2020-2506</t>
+          <t>STFKW-2023-4624</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Professor</t>
+          <t>Lecturer</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Bachelors</t>
+          <t>Masters</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1792,39 +1792,39 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Doctor, hospital</t>
+          <t>Television camera operator</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>2024-01-26</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sipho</t>
+          <t>Brian</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Hove</t>
+          <t>Khumalo</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>sipho.hove@university.ac.zw</t>
+          <t>brian.khumalo@university.ac.zw</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>+263 77 113 6001</t>
+          <t>+263 73 340 5755</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>STFKW-2024-5026</t>
+          <t>STFKW-2024-1575</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1834,59 +1834,59 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Bachelors</t>
+          <t>PhD</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Faculty of Education</t>
+          <t>Faculty of Arts</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Psychology of Education</t>
+          <t>History</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Engineer, structural</t>
+          <t>Fitness centre manager</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>2023-09-16</t>
+          <t>2025-06-22</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Beauty</t>
+          <t>Terrence</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Mupezeni</t>
+          <t>Sibanda</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>beauty.mupezeni@university.ac.zw</t>
+          <t>terrence.sibanda@university.ac.zw</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>+263 73 166 4172</t>
+          <t>+263 71 719 7237</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>STFKW-2021-1386</t>
+          <t>STFKW-2023-9443</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Professor</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1896,54 +1896,54 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Faculty of Commerce</t>
+          <t>Faculty of Education</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Economics</t>
+          <t>Early Childhood Development</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Prison officer</t>
+          <t>Interior and spatial designer</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>2020-03-16</t>
+          <t>2024-01-25</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Gracious</t>
+          <t>Langa</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Khumalo</t>
+          <t>Chikara</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>gracious.khumalo@university.ac.zw</t>
+          <t>langa.chikara@university.ac.zw</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>+263 77 862 6955</t>
+          <t>+263 71 621 5644</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>STFKW-2022-2842</t>
+          <t>STFKW-2025-9036</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Assistant</t>
+          <t>Admin</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1953,116 +1953,116 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Faculty of Commerce</t>
+          <t>Faculty of Engineering</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Economics</t>
+          <t>Computer Engineering</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Pharmacist, community</t>
+          <t>Structural engineer</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>2021-04-01</t>
+          <t>2022-05-25</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Chipo</t>
+          <t>Memory</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Moyo</t>
+          <t>Chiwanza</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>chipo.moyo@university.ac.zw</t>
+          <t>memory.chiwanza@university.ac.zw</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>+263 77 536 6204</t>
+          <t>+263 73 181 5858</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>STFKW-2022-8879</t>
+          <t>STFKW-2022-6398</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Lecturer</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Bachelors</t>
+          <t>Masters</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Faculty of Education</t>
+          <t>Faculty of Commerce</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Psychology of Education</t>
+          <t>Economics</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Social research officer, government</t>
+          <t>Consulting civil engineer</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2023-05-17</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Patience</t>
+          <t>Gift</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Maphosa</t>
+          <t>Mutasa</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>patience.maphosa@university.ac.zw</t>
+          <t>gift.mutasa@university.ac.zw</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>+263 77 579 2569</t>
+          <t>+263 78 620 2993</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>STFKW-2020-9663</t>
+          <t>STFKW-2022-7927</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Admin</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Bachelors</t>
+          <t>Certificate</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -2077,158 +2077,158 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Chiropodist</t>
+          <t>Magazine journalist</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>2021-11-07</t>
+          <t>2024-11-24</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Anesu</t>
+          <t>Knowledge</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Ndlovu</t>
+          <t>Chigumba</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>anesu.ndlovu@university.ac.zw</t>
+          <t>knowledge.chigumba@university.ac.zw</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>+263 77 607 6666</t>
+          <t>+263 77 510 6575</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>STFKW-2021-6700</t>
+          <t>STFKW-2020-9183</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Admin</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Diploma</t>
+          <t>Masters</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Faculty of Education</t>
+          <t>Faculty of Arts</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Psychology of Education</t>
+          <t>Philosophy</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Conservation officer, historic buildings</t>
+          <t>Energy manager</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>2024-02-16</t>
+          <t>2021-06-12</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Chipo</t>
+          <t>Busisiwe</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Banda</t>
+          <t>Sibanda</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>chipo.banda@university.ac.zw</t>
+          <t>busisiwe.sibanda1@university.ac.zw</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>+263 77 323 4971</t>
+          <t>+263 71 401 1068</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>STFKW-2020-1015</t>
+          <t>STFKW-2021-5508</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Professor</t>
+          <t>Lecturer</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Masters</t>
+          <t>PhD</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Faculty of Education</t>
+          <t>Faculty of Arts</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Curriculum Studies</t>
+          <t>History</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Paramedic</t>
+          <t>Engineer, communications</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-24</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Nyasha</t>
+          <t>Takesure</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Gumbo</t>
+          <t>Shumba</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>nyasha.gumbo@university.ac.zw</t>
+          <t>takesure.shumba@university.ac.zw</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>+263 71 670 6899</t>
+          <t>+263 77 779 6064</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>STFKW-2020-6500</t>
+          <t>STFKW-2024-8658</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Assistant</t>
+          <t>Lecturer</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2238,54 +2238,54 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Faculty of Education</t>
+          <t>Faculty of Engineering</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Curriculum Studies</t>
+          <t>Civil Engineering</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Holiday representative</t>
+          <t>Sales professional, IT</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>2024-01-25</t>
+          <t>2025-01-31</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Langa</t>
+          <t>Prosper</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Gumbo</t>
+          <t>Mupezeni</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>langa.gumbo@university.ac.zw</t>
+          <t>prosper.mupezeni@university.ac.zw</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>+263 71 815 6636</t>
+          <t>+263 73 143 5278</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>STFKW-2025-4984</t>
+          <t>STFKW-2025-8897</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Professor</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2295,49 +2295,49 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Faculty of Science</t>
+          <t>Faculty of Education</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Physics</t>
+          <t>Early Childhood Development</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Chartered public finance accountant</t>
+          <t>Jewellery designer</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>2022-01-05</t>
+          <t>2023-02-04</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Terrence</t>
+          <t>Nyasha</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Dube</t>
+          <t>Mugabe</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>terrence.dube@university.ac.zw</t>
+          <t>nyasha.mugabe@university.ac.zw</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>+263 71 877 5967</t>
+          <t>+263 77 124 7871</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>STFKW-2021-7780</t>
+          <t>STFKW-2022-8532</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2357,49 +2357,49 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Civil Engineering</t>
+          <t>Computer Engineering</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Arts administrator</t>
+          <t>Financial adviser</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>2024-02-17</t>
+          <t>2021-04-21</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Prosper</t>
+          <t>Gift</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Chiwanza</t>
+          <t>Chigumba</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>prosper.chiwanza@university.ac.zw</t>
+          <t>gift.chigumba@university.ac.zw</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>+263 73 657 7984</t>
+          <t>+263 78 302 3432</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>STFKW-2022-4147</t>
+          <t>STFKW-2021-7460</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Professor</t>
+          <t>Lecturer</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2409,277 +2409,277 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Faculty of Engineering</t>
+          <t>Faculty of Education</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Electrical Engineering</t>
+          <t>Psychology of Education</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Programmer, applications</t>
+          <t>Therapist, occupational</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>2022-04-20</t>
+          <t>2020-09-20</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Ngonidzashe</t>
+          <t>Tendai</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Marufu</t>
+          <t>Moyo</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ngonidzashe.marufu@university.ac.zw</t>
+          <t>tendai.moyo@university.ac.zw</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>+263 73 120 2148</t>
+          <t>+263 77 892 9812</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>STFKW-2023-9268</t>
+          <t>STFKW-2020-8646</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Lecturer</t>
+          <t>Admin</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Diploma</t>
+          <t>Certificate</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Faculty of Engineering</t>
+          <t>Faculty of Arts</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Computer Engineering</t>
+          <t>English Literature</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Scientific laboratory technician</t>
+          <t>Set designer</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2023-10-20</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Patience</t>
+          <t>Kudzai</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Hove</t>
+          <t>Maphosa</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>patience.hove@university.ac.zw</t>
+          <t>kudzai.maphosa@university.ac.zw</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>+263 71 145 5751</t>
+          <t>+263 78 690 4627</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>STFKW-2022-4035</t>
+          <t>STFKW-2024-7649</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Assistant</t>
+          <t>Admin</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Certificate</t>
+          <t>Bachelors</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Faculty of Education</t>
+          <t>Faculty of Arts</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Psychology of Education</t>
+          <t>English Literature</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Media planner</t>
+          <t>Oncologist</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>2021-10-16</t>
+          <t>2020-04-26</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Chipo</t>
+          <t>Promise</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Mukoko</t>
+          <t>Ncube</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>chipo.mukoko@university.ac.zw</t>
+          <t>promise.ncube@university.ac.zw</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>+263 78 462 7844</t>
+          <t>+263 77 345 7342</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>STFKW-2020-5715</t>
+          <t>STFKW-2024-2902</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Professor</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Bachelors</t>
+          <t>Diploma</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Faculty of Commerce</t>
+          <t>Faculty of Arts</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Business Management</t>
+          <t>Philosophy</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Restaurant manager</t>
+          <t>Risk analyst</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>2023-02-09</t>
+          <t>2025-11-27</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Godknows</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Mukoko</t>
+          <t>Mugabe</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>brighton.mukoko@university.ac.zw</t>
+          <t>godknows.mugabe@university.ac.zw</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>+263 71 323 8460</t>
+          <t>+263 71 540 6680</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>STFKW-2021-2255</t>
+          <t>STFKW-2022-7601</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Assistant</t>
+          <t>Professor</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Diploma</t>
+          <t>Masters</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Faculty of Education</t>
+          <t>Faculty of Commerce</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Psychology of Education</t>
+          <t>Banking and Finance</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Pharmacist, community</t>
+          <t>Higher education lecturer</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Simbarashe</t>
+          <t>Ngonidzashe</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Maphosa</t>
+          <t>Rusike</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>simbarashe.maphosa@university.ac.zw</t>
+          <t>ngonidzashe.rusike@university.ac.zw</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>+263 77 841 2481</t>
+          <t>+263 71 550 4233</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>STFKW-2023-6896</t>
+          <t>STFKW-2023-3489</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2689,34 +2689,34 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Masters</t>
+          <t>Bachelors</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Faculty of Education</t>
+          <t>Faculty of Commerce</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Psychology of Education</t>
+          <t>Economics</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Copywriter, advertising</t>
+          <t>Waste management officer</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>2024-02-18</t>
+          <t>2023-07-03</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Anesu</t>
+          <t>Farai</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2726,111 +2726,111 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>anesu.chikara@university.ac.zw</t>
+          <t>farai.chikara@university.ac.zw</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>+263 71 459 3916</t>
+          <t>+263 71 174 1962</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>STFKW-2025-8378</t>
+          <t>STFKW-2020-4103</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Assistant</t>
+          <t>Lecturer</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>PhD</t>
+          <t>Bachelors</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Faculty of Education</t>
+          <t>Faculty of Commerce</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Early Childhood Development</t>
+          <t>Accounting</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Sub</t>
+          <t>Camera operator</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>2023-03-13</t>
+          <t>2025-04-12</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Chipo</t>
+          <t>Rutendo</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Mpofu</t>
+          <t>Rusike</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>chipo.mpofu@university.ac.zw</t>
+          <t>rutendo.rusike@university.ac.zw</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>+263 71 483 6850</t>
+          <t>+263 73 177 1799</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>STFKW-2024-2704</t>
+          <t>STFKW-2024-1318</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Lecturer</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Diploma</t>
+          <t>Certificate</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Faculty of Science</t>
+          <t>Faculty of Engineering</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Physics</t>
+          <t>Computer Engineering</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Investment analyst</t>
+          <t>Aid worker</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>2020-11-19</t>
+          <t>2021-01-29</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Brian</t>
+          <t>Munyaradzi</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2840,84 +2840,84 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>brian.moyo@university.ac.zw</t>
+          <t>munyaradzi.moyo@university.ac.zw</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>+263 73 238 9400</t>
+          <t>+263 71 983 2887</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>STFKW-2020-6557</t>
+          <t>STFKW-2025-2082</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Lecturer</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>PhD</t>
+          <t>Diploma</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Faculty of Engineering</t>
+          <t>Faculty of Science</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Civil Engineering</t>
+          <t>Chemistry</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Conservator, museum/gallery</t>
+          <t>Scientist, water quality</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>2024-01-15</t>
+          <t>2023-08-09</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Beauty</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Mhere</t>
+          <t>Ndlovu</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>beauty.mhere@university.ac.zw</t>
+          <t>sarah.ndlovu@university.ac.zw</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>+263 78 109 9804</t>
+          <t>+263 78 570 6620</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>STFKW-2020-1434</t>
+          <t>STFKW-2023-8743</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Lecturer</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>PhD</t>
+          <t>Bachelors</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2932,39 +2932,39 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Television camera operator</t>
+          <t>Animal technologist</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>2022-02-28</t>
+          <t>2024-01-02</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Nyasha</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Phiri</t>
+          <t>Dube</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>brighton.phiri@university.ac.zw</t>
+          <t>nyasha.dube@university.ac.zw</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>+263 71 470 8621</t>
+          <t>+263 77 635 5358</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>STFKW-2023-7195</t>
+          <t>STFKW-2025-4616</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2974,116 +2974,116 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Bachelors</t>
+          <t>Certificate</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Faculty of Science</t>
+          <t>Faculty of Engineering</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Mathematics</t>
+          <t>Electrical Engineering</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Customer service manager</t>
+          <t>Research officer, government</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2023-02-26</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Ngonidzashe</t>
+          <t>Tafadzwa</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Sibanda</t>
+          <t>Phiri</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>ngonidzashe.sibanda@university.ac.zw</t>
+          <t>tafadzwa.phiri@university.ac.zw</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>+263 77 367 1979</t>
+          <t>+263 71 692 6148</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>STFKW-2025-8076</t>
+          <t>STFKW-2023-4401</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Lecturer</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Diploma</t>
+          <t>Bachelors</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Faculty of Arts</t>
+          <t>Faculty of Science</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Shona &amp; Ndebele Studies</t>
+          <t>Physics</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Corporate investment banker</t>
+          <t>Merchant navy officer</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>2024-04-07</t>
+          <t>2024-05-07</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Nyasha</t>
+          <t>Precious</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Sibanda</t>
+          <t>Ncube</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>nyasha.sibanda@university.ac.zw</t>
+          <t>precious.ncube@university.ac.zw</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>+263 77 716 8088</t>
+          <t>+263 78 374 5913</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>STFKW-2021-2406</t>
+          <t>STFKW-2020-1408</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Admin</t>
+          <t>Assistant</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -3093,116 +3093,116 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Faculty of Education</t>
+          <t>Faculty of Engineering</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Curriculum Studies</t>
+          <t>Computer Engineering</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Arts administrator</t>
+          <t>Civil Service fast streamer</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>2024-02-10</t>
+          <t>2025-07-09</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Tendai</t>
+          <t>Simbarashe</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Ndlovu</t>
+          <t>Mpofu</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>tendai.ndlovu@university.ac.zw</t>
+          <t>simbarashe.mpofu@university.ac.zw</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>+263 73 214 2840</t>
+          <t>+263 78 197 8826</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>STFKW-2025-5520</t>
+          <t>STFKW-2021-7818</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Professor</t>
+          <t>Assistant</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Masters</t>
+          <t>Diploma</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Faculty of Arts</t>
+          <t>Faculty of Engineering</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Linguistics</t>
+          <t>Mechanical Engineering</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Therapist, art</t>
+          <t>Editor, commissioning</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>2024-02-08</t>
+          <t>2022-12-12</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Takesure</t>
+          <t>Godknows</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Mupezeni</t>
+          <t>Mpofu</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>takesure.mupezeni@university.ac.zw</t>
+          <t>godknows.mpofu@university.ac.zw</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>+263 71 815 9497</t>
+          <t>+263 78 571 1726</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>STFKW-2021-8824</t>
+          <t>STFKW-2023-8255</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Admin</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Certificate</t>
+          <t>Bachelors</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -3217,96 +3217,96 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Engineer, petroleum</t>
+          <t>Administrator, Civil Service</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>2024-06-20</t>
+          <t>2021-06-21</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Knowledge</t>
+          <t>Anesu</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Shumba</t>
+          <t>Maphosa</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>knowledge.shumba@university.ac.zw</t>
+          <t>anesu.maphosa@university.ac.zw</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>+263 77 263 1504</t>
+          <t>+263 71 468 2299</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>STFKW-2021-7424</t>
+          <t>STFKW-2023-5822</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Admin</t>
+          <t>Lecturer</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Masters</t>
+          <t>PhD</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Faculty of Arts</t>
+          <t>Faculty of Engineering</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Philosophy</t>
+          <t>Electrical Engineering</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Network engineer</t>
+          <t>Magazine features editor</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>2020-10-06</t>
+          <t>2025-05-20</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Patience</t>
+          <t>Munyaradzi</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Shumba</t>
+          <t>Chigumba</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>patience.shumba@university.ac.zw</t>
+          <t>munyaradzi.chigumba1@university.ac.zw</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>+263 71 803 3613</t>
+          <t>+263 77 968 3335</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>STFKW-2020-9387</t>
+          <t>STFKW-2023-8694</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3326,24 +3326,24 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Linguistics</t>
+          <t>Shona &amp; Ndebele Studies</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Investment analyst</t>
+          <t>Quality manager</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2024-04-28</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Kudzai</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3353,17 +3353,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>kudzai.moyo@university.ac.zw</t>
+          <t>brighton.moyo@university.ac.zw</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>+263 71 818 4187</t>
+          <t>+263 71 597 2097</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>STFKW-2020-6822</t>
+          <t>STFKW-2020-5398</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3373,111 +3373,111 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Masters</t>
+          <t>PhD</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Faculty of Education</t>
+          <t>Faculty of Science</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Curriculum Studies</t>
+          <t>Chemistry</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Management consultant</t>
+          <t>Marketing executive</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>2025-01-30</t>
+          <t>2022-01-15</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Lovemore</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Mupezeni</t>
+          <t>Nkomo</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>sarah.mupezeni@university.ac.zw</t>
+          <t>lovemore.nkomo@university.ac.zw</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>+263 78 274 4104</t>
+          <t>+263 71 573 1931</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>STFKW-2024-3325</t>
+          <t>STFKW-2020-8944</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Professor</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Certificate</t>
+          <t>Masters</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Faculty of Engineering</t>
+          <t>Faculty of Education</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Civil Engineering</t>
+          <t>Early Childhood Development</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Cartographer</t>
+          <t>Scientist, forensic</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>2021-04-12</t>
+          <t>2021-12-25</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Knowledge</t>
+          <t>Nyasha</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Ncube</t>
+          <t>Dube</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>knowledge.ncube@university.ac.zw</t>
+          <t>nyasha.dube1@university.ac.zw</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>+263 77 446 2087</t>
+          <t>+263 78 754 3128</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>STFKW-2023-5792</t>
+          <t>STFKW-2023-4687</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3487,121 +3487,121 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>PhD</t>
+          <t>Bachelors</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Faculty of Engineering</t>
+          <t>Faculty of Commerce</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Electrical Engineering</t>
+          <t>Economics</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Restaurant manager</t>
+          <t>Food technologist</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>2022-01-22</t>
+          <t>2024-03-20</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Lovemore</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Gumbo</t>
+          <t>Moyo</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>sarah.gumbo@university.ac.zw</t>
+          <t>lovemore.moyo@university.ac.zw</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>+263 71 547 8954</t>
+          <t>+263 77 570 1624</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>STFKW-2022-4463</t>
+          <t>STFKW-2025-5035</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Lecturer</t>
+          <t>Admin</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>PhD</t>
+          <t>Bachelors</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Faculty of Engineering</t>
+          <t>Faculty of Science</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Civil Engineering</t>
+          <t>Mathematics</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Physiotherapist</t>
+          <t>Geologist, wellsite</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>2025-11-07</t>
+          <t>2020-11-08</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Godknows</t>
+          <t>Anesu</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Marufu</t>
+          <t>Banda</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>godknows.marufu@university.ac.zw</t>
+          <t>anesu.banda@university.ac.zw</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>+263 71 148 7331</t>
+          <t>+263 77 403 7844</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>STFKW-2025-1678</t>
+          <t>STFKW-2025-2302</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Professor</t>
+          <t>Admin</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Masters</t>
+          <t>Diploma</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3616,39 +3616,39 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Tourism officer</t>
+          <t>Clinical biochemist</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2021-02-24</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Gracious</t>
+          <t>Patience</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Chiwanza</t>
+          <t>Gwatidzo</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>gracious.chiwanza@university.ac.zw</t>
+          <t>patience.gwatidzo@university.ac.zw</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>+263 77 210 6313</t>
+          <t>+263 71 987 5751</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>STFKW-2022-9227</t>
+          <t>STFKW-2020-4746</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3663,22 +3663,22 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Faculty of Education</t>
+          <t>Faculty of Commerce</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Curriculum Studies</t>
+          <t>Accounting</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Clinical scientist, histocompatibility and immunogenetics</t>
+          <t>Psychologist, sport and exercise</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>2020-05-13</t>
+          <t>2025-09-26</t>
         </is>
       </c>
     </row>
@@ -3690,136 +3690,136 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Moyo</t>
+          <t>Chigumba</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>rudo.moyo@university.ac.zw</t>
+          <t>rudo.chigumba@university.ac.zw</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>+263 73 692 9277</t>
+          <t>+263 78 329 2665</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>STFKW-2024-5784</t>
+          <t>STFKW-2024-7767</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Assistant</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Diploma</t>
+          <t>Bachelors</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Faculty of Education</t>
+          <t>Faculty of Science</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Early Childhood Development</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>IT sales professional</t>
+          <t>Education administrator</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>2023-04-05</t>
+          <t>2022-07-04</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Rudo</t>
+          <t>Anesu</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Mugabe</t>
+          <t>Chigumba</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>rudo.mugabe@university.ac.zw</t>
+          <t>anesu.chigumba@university.ac.zw</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>+263 71 970 1411</t>
+          <t>+263 73 491 1486</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>STFKW-2020-2129</t>
+          <t>STFKW-2024-1534</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Admin</t>
+          <t>Professor</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Masters</t>
+          <t>Certificate</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Faculty of Arts</t>
+          <t>Faculty of Commerce</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>English Literature</t>
+          <t>Business Management</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Chief Executive Officer</t>
+          <t>Social research officer, government</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>2021-06-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Blessing</t>
+          <t>Terrence</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Chikara</t>
+          <t>Mugabe</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>blessing.chikara@university.ac.zw</t>
+          <t>terrence.mugabe@university.ac.zw</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>+263 77 987 1923</t>
+          <t>+263 71 227 2150</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>STFKW-2022-6785</t>
+          <t>STFKW-2024-1700</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3829,7 +3829,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Diploma</t>
+          <t>Bachelors</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3844,96 +3844,96 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Lecturer, further education</t>
+          <t>Solicitor, Scotland</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>2023-10-06</t>
+          <t>2024-06-08</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Langa</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Mutasa</t>
+          <t>Maphosa</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>langa.mutasa@university.ac.zw</t>
+          <t>sarah.maphosa@university.ac.zw</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>+263 71 834 5399</t>
+          <t>+263 71 711 9641</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>STFKW-2022-3131</t>
+          <t>STFKW-2023-4352</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Lecturer</t>
+          <t>Assistant</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>PhD</t>
+          <t>Certificate</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Faculty of Engineering</t>
+          <t>Faculty of Arts</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Computer Engineering</t>
+          <t>Philosophy</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Civil engineer, consulting</t>
+          <t>Phytotherapist</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>2023-03-13</t>
+          <t>2024-12-10</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Gift</t>
+          <t>Terrence</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Hove</t>
+          <t>Chikara</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>gift.hove@university.ac.zw</t>
+          <t>terrence.chikara@university.ac.zw</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>+263 73 822 6036</t>
+          <t>+263 73 473 9761</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>STFKW-2021-8436</t>
+          <t>STFKW-2020-1055</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3943,111 +3943,111 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Diploma</t>
+          <t>Certificate</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Faculty of Arts</t>
+          <t>Faculty of Education</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Philosophy</t>
+          <t>Curriculum Studies</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Chartered legal executive (England and Wales)</t>
+          <t>Nature conservation officer</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>2025-07-26</t>
+          <t>2021-04-29</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Beauty</t>
+          <t>Gamuchirai</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Mhere</t>
+          <t>Nkomo</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>beauty.mhere1@university.ac.zw</t>
+          <t>gamuchirai.nkomo@university.ac.zw</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>+263 77 896 6408</t>
+          <t>+263 78 130 5184</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>STFKW-2025-2064</t>
+          <t>STFKW-2024-7828</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Lecturer</t>
+          <t>Admin</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Certificate</t>
+          <t>Masters</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Faculty of Education</t>
+          <t>Faculty of Arts</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Early Childhood Development</t>
+          <t>Shona &amp; Ndebele Studies</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Runner, broadcasting/film/video</t>
+          <t>Brewing technologist</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>2020-06-14</t>
+          <t>2023-10-12</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Memory</t>
+          <t>Precious</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Gumbo</t>
+          <t>Mutasa</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>memory.gumbo@university.ac.zw</t>
+          <t>precious.mutasa@university.ac.zw</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>+263 71 235 3381</t>
+          <t>+263 77 674 7941</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>STFKW-2025-3177</t>
+          <t>STFKW-2024-6276</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -4057,116 +4057,116 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Masters</t>
+          <t>Diploma</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Faculty of Commerce</t>
+          <t>Faculty of Engineering</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Economics</t>
+          <t>Computer Engineering</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Event organiser</t>
+          <t>Broadcast engineer</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>2020-12-17</t>
+          <t>2025-09-20</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Simbarashe</t>
+          <t>Godknows</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Mutasa</t>
+          <t>Chigumba</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>simbarashe.mutasa@university.ac.zw</t>
+          <t>godknows.chigumba@university.ac.zw</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>+263 71 800 5407</t>
+          <t>+263 73 304 1961</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>STFKW-2024-4331</t>
+          <t>STFKW-2024-2088</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Assistant</t>
+          <t>Lecturer</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Diploma</t>
+          <t>Bachelors</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Faculty of Engineering</t>
+          <t>Faculty of Science</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Electrical Engineering</t>
+          <t>Biology</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Licensed conveyancer</t>
+          <t>Film/video editor</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>2021-06-22</t>
+          <t>2023-04-18</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Langa</t>
+          <t>Rutendo</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Hove</t>
+          <t>Ndlovu</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>langa.hove@university.ac.zw</t>
+          <t>rutendo.ndlovu@university.ac.zw</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>+263 73 534 6575</t>
+          <t>+263 73 314 6013</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>STFKW-2022-5778</t>
+          <t>STFKW-2021-8929</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Professor</t>
+          <t>Admin</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -4176,163 +4176,163 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Faculty of Engineering</t>
+          <t>Faculty of Science</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Mechanical Engineering</t>
+          <t>Biology</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Health visitor</t>
+          <t>Fast food restaurant manager</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>2021-02-27</t>
+          <t>2021-02-28</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Takesure</t>
+          <t>Munyaradzi</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Muzenda</t>
+          <t>Maphosa</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>takesure.muzenda@university.ac.zw</t>
+          <t>munyaradzi.maphosa@university.ac.zw</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>+263 71 662 6175</t>
+          <t>+263 77 403 8430</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>STFKW-2023-7134</t>
+          <t>STFKW-2021-9278</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Professor</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Certificate</t>
+          <t>Masters</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Faculty of Science</t>
+          <t>Faculty of Commerce</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Business Management</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Pharmacist, hospital</t>
+          <t>Ceramics designer</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>2024-05-06</t>
+          <t>2024-12-25</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Langa</t>
+          <t>Terrence</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Ncube</t>
+          <t>Marufu</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>langa.ncube@university.ac.zw</t>
+          <t>terrence.marufu@university.ac.zw</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>+263 71 425 1449</t>
+          <t>+263 78 486 6806</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>STFKW-2022-7328</t>
+          <t>STFKW-2020-2185</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Assistant</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Masters</t>
+          <t>PhD</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Faculty of Arts</t>
+          <t>Faculty of Engineering</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Philosophy</t>
+          <t>Electrical Engineering</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Academic librarian</t>
+          <t>Chiropodist</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2023-11-28</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Beauty</t>
+          <t>Tendai</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Banda</t>
+          <t>Mupezeni</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>beauty.banda@university.ac.zw</t>
+          <t>tendai.mupezeni@university.ac.zw</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>+263 77 166 4680</t>
+          <t>+263 77 129 2005</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>STFKW-2021-1109</t>
+          <t>STFKW-2024-9707</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4342,168 +4342,168 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Certificate</t>
+          <t>Diploma</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Faculty of Commerce</t>
+          <t>Faculty of Arts</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Banking and Finance</t>
+          <t>History</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Amenity horticulturist</t>
+          <t>Physiotherapist</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>2024-05-15</t>
+          <t>2023-04-14</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Rutendo</t>
+          <t>Memory</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Nkomo</t>
+          <t>Phiri</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>rutendo.nkomo@university.ac.zw</t>
+          <t>memory.phiri@university.ac.zw</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>+263 78 799 5771</t>
+          <t>+263 71 721 9516</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>STFKW-2024-8931</t>
+          <t>STFKW-2024-4513</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Lecturer</t>
+          <t>Admin</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Bachelors</t>
+          <t>Certificate</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Faculty of Arts</t>
+          <t>Faculty of Commerce</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>History</t>
+          <t>Banking and Finance</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Television production assistant</t>
+          <t>Analytical chemist</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>2023-09-11</t>
+          <t>2023-11-06</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Tendai</t>
+          <t>Tinashe</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Marufu</t>
+          <t>Gwatidzo</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>tendai.marufu@university.ac.zw</t>
+          <t>tinashe.gwatidzo@university.ac.zw</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>+263 71 596 5389</t>
+          <t>+263 77 880 3115</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>STFKW-2023-1924</t>
+          <t>STFKW-2021-3349</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Professor</t>
+          <t>Admin</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>PhD</t>
+          <t>Certificate</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Faculty of Commerce</t>
+          <t>Faculty of Science</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Business Management</t>
+          <t>Chemistry</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Geochemist</t>
+          <t>Geologist, engineering</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-07-23</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Tinashe</t>
+          <t>Farai</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Mutasa</t>
+          <t>Mhere</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>tinashe.mutasa@university.ac.zw</t>
+          <t>farai.mhere@university.ac.zw</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>+263 78 993 4674</t>
+          <t>+263 73 187 2844</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>STFKW-2020-6430</t>
+          <t>STFKW-2023-5159</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4513,54 +4513,54 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>PhD</t>
+          <t>Certificate</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Faculty of Commerce</t>
+          <t>Faculty of Education</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Business Management</t>
+          <t>Early Childhood Development</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Energy engineer</t>
+          <t>Leisure centre manager</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>2020-12-05</t>
+          <t>2021-05-19</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Munyaradzi</t>
+          <t>Patience</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Mutasa</t>
+          <t>Gwatidzo</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>munyaradzi.mutasa@university.ac.zw</t>
+          <t>patience.gwatidzo1@university.ac.zw</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>+263 78 486 4577</t>
+          <t>+263 78 484 5625</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>STFKW-2022-9008</t>
+          <t>STFKW-2025-9494</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4570,84 +4570,84 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>PhD</t>
+          <t>Bachelors</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Faculty of Education</t>
+          <t>Faculty of Engineering</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Psychology of Education</t>
+          <t>Mechanical Engineering</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Clinical cytogeneticist</t>
+          <t>Scientist, research (maths)</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>2022-11-21</t>
+          <t>2025-01-08</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Tinashe</t>
+          <t>Simbarashe</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Chiwanza</t>
+          <t>Mpofu</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>tinashe.chiwanza@university.ac.zw</t>
+          <t>simbarashe.mpofu1@university.ac.zw</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>+263 71 866 9707</t>
+          <t>+263 77 461 1940</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>STFKW-2024-4382</t>
+          <t>STFKW-2020-7974</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Professor</t>
+          <t>Assistant</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Masters</t>
+          <t>Bachelors</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Faculty of Engineering</t>
+          <t>Faculty of Education</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Mechanical Engineering</t>
+          <t>Curriculum Studies</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Surveyor, land/geomatics</t>
+          <t>Engineer, mining</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2025-07-13</t>
         </is>
       </c>
     </row>
@@ -4659,198 +4659,198 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Rusike</t>
+          <t>Muzenda</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>sipho.rusike@university.ac.zw</t>
+          <t>sipho.muzenda@university.ac.zw</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>+263 71 153 8957</t>
+          <t>+263 73 656 9412</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>STFKW-2024-1381</t>
+          <t>STFKW-2022-8848</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Admin</t>
+          <t>Assistant</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Certificate</t>
+          <t>Bachelors</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Faculty of Science</t>
+          <t>Faculty of Engineering</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Physics</t>
+          <t>Mechanical Engineering</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Geographical information systems officer</t>
+          <t>Print production planner</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>2022-09-30</t>
+          <t>2020-04-02</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Tapiwa</t>
+          <t>Farai</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Marufu</t>
+          <t>Maphosa</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>tapiwa.marufu@university.ac.zw</t>
+          <t>farai.maphosa1@university.ac.zw</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>+263 77 499 4450</t>
+          <t>+263 71 975 5176</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>STFKW-2021-9763</t>
+          <t>STFKW-2020-6146</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Lecturer</t>
+          <t>Professor</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Certificate</t>
+          <t>Diploma</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Faculty of Arts</t>
+          <t>Faculty of Education</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Linguistics</t>
+          <t>Early Childhood Development</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Administrator, sports</t>
+          <t>Conservation officer, nature</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-08-30</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Rudo</t>
+          <t>Precious</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Mpofu</t>
+          <t>Rusike</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>rudo.mpofu@university.ac.zw</t>
+          <t>precious.rusike@university.ac.zw</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>+263 71 342 6972</t>
+          <t>+263 73 651 5000</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>STFKW-2023-7736</t>
+          <t>STFKW-2022-5398</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Professor</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Diploma</t>
+          <t>Masters</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Faculty of Science</t>
+          <t>Faculty of Arts</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Physics</t>
+          <t>English Literature</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Amenity horticulturist</t>
+          <t>Paediatric nurse</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Knowledge</t>
+          <t>Tapiwa</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Mpofu</t>
+          <t>Khumalo</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>knowledge.mpofu@university.ac.zw</t>
+          <t>tapiwa.khumalo@university.ac.zw</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>+263 77 977 7126</t>
+          <t>+263 77 820 7080</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>STFKW-2023-4157</t>
+          <t>STFKW-2025-5972</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Lecturer</t>
+          <t>Admin</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -4860,116 +4860,116 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Faculty of Commerce</t>
+          <t>Faculty of Science</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Economics</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Race relations officer</t>
+          <t>Economist</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>2023-02-05</t>
+          <t>2022-04-13</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Busisiwe</t>
+          <t>Knowledge</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Moyo</t>
+          <t>Mutasa</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>busisiwe.moyo@university.ac.zw</t>
+          <t>knowledge.mutasa@university.ac.zw</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>+263 78 554 1408</t>
+          <t>+263 71 492 7603</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>STFKW-2024-2833</t>
+          <t>STFKW-2025-4527</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Professor</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Bachelors</t>
+          <t>Diploma</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Faculty of Science</t>
+          <t>Faculty of Education</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Psychology of Education</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Loss adjuster, chartered</t>
+          <t>Learning mentor</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2020-04-15</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Terrence</t>
+          <t>Langa</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Mugabe</t>
+          <t>Ndlovu</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>terrence.mugabe@university.ac.zw</t>
+          <t>langa.ndlovu@university.ac.zw</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>+263 77 405 2755</t>
+          <t>+263 77 199 1347</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>STFKW-2021-2329</t>
+          <t>STFKW-2025-5182</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Professor</t>
+          <t>Assistant</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Bachelors</t>
+          <t>Certificate</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4979,74 +4979,74 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Early Childhood Development</t>
+          <t>Psychology of Education</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Investment banker, operational</t>
+          <t>Nurse, children's</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>2024-11-09</t>
+          <t>2023-03-22</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Kudzai</t>
+          <t>Patience</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Ncube</t>
+          <t>Shumba</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>kudzai.ncube@university.ac.zw</t>
+          <t>patience.shumba@university.ac.zw</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>+263 73 620 5628</t>
+          <t>+263 71 861 2023</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>STFKW-2025-2495</t>
+          <t>STFKW-2020-8894</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Admin</t>
+          <t>Lecturer</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Bachelors</t>
+          <t>Diploma</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Faculty of Science</t>
+          <t>Faculty of Commerce</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Business Management</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Medical sales representative</t>
+          <t>Architectural technologist</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>2020-03-13</t>
+          <t>2020-04-14</t>
         </is>
       </c>
     </row>
@@ -5058,27 +5058,27 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Ndlovu</t>
+          <t>Mukoko</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>thabo.ndlovu@university.ac.zw</t>
+          <t>thabo.mukoko@university.ac.zw</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>+263 78 773 6844</t>
+          <t>+263 77 145 6490</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>STFKW-2023-4876</t>
+          <t>STFKW-2025-5758</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Professor</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -5093,158 +5093,158 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Mathematics</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Chiropodist</t>
+          <t>Print production planner</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>2024-09-04</t>
+          <t>2024-06-01</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Blessing</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Nkomo</t>
+          <t>Mhere</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>blessing.nkomo@university.ac.zw</t>
+          <t>brighton.mhere@university.ac.zw</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>+263 71 167 9911</t>
+          <t>+263 77 932 2367</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>STFKW-2021-2815</t>
+          <t>STFKW-2022-4481</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Assistant</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Certificate</t>
+          <t>Diploma</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Faculty of Education</t>
+          <t>Faculty of Arts</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Early Childhood Development</t>
+          <t>Shona &amp; Ndebele Studies</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Comptroller</t>
+          <t>Network engineer</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>2023-11-15</t>
+          <t>2021-03-12</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Gift</t>
+          <t>Chipo</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Dube</t>
+          <t>Marufu</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>gift.dube@university.ac.zw</t>
+          <t>chipo.marufu@university.ac.zw</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>+263 77 976 7406</t>
+          <t>+263 78 330 9690</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>STFKW-2020-3420</t>
+          <t>STFKW-2021-4213</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Lecturer</t>
+          <t>Admin</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>PhD</t>
+          <t>Masters</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Faculty of Science</t>
+          <t>Faculty of Engineering</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Mathematics</t>
+          <t>Mechanical Engineering</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Journalist, broadcasting</t>
+          <t>Media planner</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>2021-05-14</t>
+          <t>2022-03-17</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Tafadzwa</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Banda</t>
+          <t>Marufu</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>sarah.banda@university.ac.zw</t>
+          <t>tafadzwa.marufu@university.ac.zw</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>+263 73 543 7516</t>
+          <t>+263 71 246 5946</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>STFKW-2021-3212</t>
+          <t>STFKW-2024-6876</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -5254,34 +5254,34 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Diploma</t>
+          <t>PhD</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Faculty of Education</t>
+          <t>Faculty of Arts</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Curriculum Studies</t>
+          <t>English Literature</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Make</t>
+          <t>Location manager</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2022-03-29</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Memory</t>
+          <t>Nyasha</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -5291,27 +5291,27 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>memory.ncube@university.ac.zw</t>
+          <t>nyasha.ncube@university.ac.zw</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>+263 77 573 4194</t>
+          <t>+263 73 351 3902</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>STFKW-2020-7621</t>
+          <t>STFKW-2024-1576</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Assistant</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>PhD</t>
+          <t>Diploma</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -5326,96 +5326,96 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Chemical engineer</t>
+          <t>Engineer, drilling</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2025-08-19</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Godknows</t>
+          <t>Busisiwe</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Nkomo</t>
+          <t>Shumba</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>godknows.nkomo@university.ac.zw</t>
+          <t>busisiwe.shumba@university.ac.zw</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>+263 77 137 8045</t>
+          <t>+263 78 787 5742</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>STFKW-2025-2805</t>
+          <t>STFKW-2020-7278</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Lecturer</t>
+          <t>Assistant</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>PhD</t>
+          <t>Bachelors</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Faculty of Science</t>
+          <t>Faculty of Arts</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Physics</t>
+          <t>English Literature</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Geochemist</t>
+          <t>Insurance claims handler</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>2022-02-07</t>
+          <t>2020-04-04</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Chipo</t>
+          <t>Promise</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Zhou</t>
+          <t>Nkomo</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>chipo.zhou@university.ac.zw</t>
+          <t>promise.nkomo@university.ac.zw</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>+263 77 191 9398</t>
+          <t>+263 77 185 4934</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>STFKW-2022-3644</t>
+          <t>STFKW-2020-2353</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -5430,59 +5430,59 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Faculty of Education</t>
+          <t>Faculty of Science</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Early Childhood Development</t>
+          <t>Biology</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Civil engineer, consulting</t>
+          <t>Print production planner</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>2022-07-02</t>
+          <t>2023-11-05</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Knowledge</t>
+          <t>Ngonidzashe</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Mutasa</t>
+          <t>Marufu</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>knowledge.mutasa@university.ac.zw</t>
+          <t>ngonidzashe.marufu@university.ac.zw</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>+263 71 211 2489</t>
+          <t>+263 77 129 9309</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>STFKW-2023-1534</t>
+          <t>STFKW-2025-7162</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Lecturer</t>
+          <t>Assistant</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>PhD</t>
+          <t>Certificate</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -5492,49 +5492,49 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Civil Engineering</t>
+          <t>Electrical Engineering</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Production designer, theatre/television/film</t>
+          <t>Amenity horticulturist</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>2020-03-23</t>
+          <t>2021-05-30</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Thabo</t>
+          <t>Rutendo</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Muzenda</t>
+          <t>Ndlovu</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>thabo.muzenda@university.ac.zw</t>
+          <t>rutendo.ndlovu1@university.ac.zw</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>+263 73 631 4214</t>
+          <t>+263 71 388 3354</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>STFKW-2022-6379</t>
+          <t>STFKW-2020-8865</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Professor</t>
+          <t>Admin</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -5544,54 +5544,54 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Faculty of Science</t>
+          <t>Faculty of Commerce</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Mathematics</t>
+          <t>Accounting</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Neurosurgeon</t>
+          <t>Haematologist</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>2021-03-28</t>
+          <t>2025-07-05</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Promise</t>
+          <t>Rudo</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Dube</t>
+          <t>Shumba</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>promise.dube@university.ac.zw</t>
+          <t>rudo.shumba@university.ac.zw</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>+263 71 123 3232</t>
+          <t>+263 71 319 6487</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>STFKW-2022-7258</t>
+          <t>STFKW-2020-3021</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Assistant</t>
+          <t>Admin</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -5611,101 +5611,101 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Dealer</t>
+          <t>Scientist, research (medical)</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>2021-12-01</t>
+          <t>2025-08-06</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Godknows</t>
+          <t>Rutendo</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Phiri</t>
+          <t>Chikara</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>godknows.phiri@university.ac.zw</t>
+          <t>rutendo.chikara@university.ac.zw</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>+263 71 901 1796</t>
+          <t>+263 71 394 5638</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>STFKW-2025-7197</t>
+          <t>STFKW-2024-4863</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Lecturer</t>
+          <t>Assistant</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Masters</t>
+          <t>PhD</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Faculty of Engineering</t>
+          <t>Faculty of Commerce</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Electrical Engineering</t>
+          <t>Accounting</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Programmer, applications</t>
+          <t>Health promotion specialist</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>2024-01-26</t>
+          <t>2022-03-18</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Tinashe</t>
+          <t>Rudo</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Ncube</t>
+          <t>Mupezeni</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>tinashe.ncube@university.ac.zw</t>
+          <t>rudo.mupezeni@university.ac.zw</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>+263 78 491 4083</t>
+          <t>+263 78 541 1294</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>STFKW-2022-2548</t>
+          <t>STFKW-2021-9841</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Assistant</t>
+          <t>Admin</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -5720,44 +5720,44 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Mathematics</t>
+          <t>Chemistry</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Cytogeneticist</t>
+          <t>Community development worker</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>2023-07-20</t>
+          <t>2020-06-26</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Tatenda</t>
+          <t>Lovemore</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Shumba</t>
+          <t>Mukoko</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>tatenda.shumba@university.ac.zw</t>
+          <t>lovemore.mukoko@university.ac.zw</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>+263 71 663 8078</t>
+          <t>+263 73 225 8720</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>STFKW-2025-8671</t>
+          <t>STFKW-2022-4028</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -5772,22 +5772,22 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Faculty of Commerce</t>
+          <t>Faculty of Engineering</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Accounting</t>
+          <t>Electrical Engineering</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Engineer, energy</t>
+          <t>Advertising account executive</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>2020-11-10</t>
+          <t>2025-06-23</t>
         </is>
       </c>
     </row>
@@ -5799,79 +5799,79 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Rusike</t>
+          <t>Maphosa</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>busisiwe.rusike@university.ac.zw</t>
+          <t>busisiwe.maphosa@university.ac.zw</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>+263 71 234 7234</t>
+          <t>+263 78 221 1403</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>STFKW-2023-5733</t>
+          <t>STFKW-2023-8564</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Professor</t>
+          <t>Admin</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Masters</t>
+          <t>Certificate</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Faculty of Engineering</t>
+          <t>Faculty of Education</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Civil Engineering</t>
+          <t>Psychology of Education</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Civil Service administrator</t>
+          <t>Training and development officer</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>2023-10-21</t>
+          <t>2022-12-25</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Rudo</t>
+          <t>Simbarashe</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Zhou</t>
+          <t>Mukoko</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>rudo.zhou@university.ac.zw</t>
+          <t>simbarashe.mukoko@university.ac.zw</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>+263 78 169 5447</t>
+          <t>+263 78 159 8253</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>STFKW-2020-7394</t>
+          <t>STFKW-2021-4033</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5891,158 +5891,158 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Curriculum Studies</t>
+          <t>Early Childhood Development</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Social worker</t>
+          <t>Research officer, trade union</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>2023-12-12</t>
+          <t>2022-02-14</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Langa</t>
+          <t>Kudzai</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Mpofu</t>
+          <t>Chigumba</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>langa.mpofu@university.ac.zw</t>
+          <t>kudzai.chigumba@university.ac.zw</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>+263 73 828 5531</t>
+          <t>+263 78 970 2119</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>STFKW-2022-6344</t>
+          <t>STFKW-2021-9162</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Professor</t>
+          <t>Admin</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>PhD</t>
+          <t>Certificate</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Faculty of Commerce</t>
+          <t>Faculty of Education</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Economics</t>
+          <t>Curriculum Studies</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Careers adviser</t>
+          <t>Presenter, broadcasting</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>2024-10-14</t>
+          <t>2025-01-26</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Tapiwa</t>
+          <t>Farai</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Khumalo</t>
+          <t>Mpofu</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>tapiwa.khumalo@university.ac.zw</t>
+          <t>farai.mpofu@university.ac.zw</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>+263 73 891 1311</t>
+          <t>+263 73 685 3175</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>STFKW-2022-5613</t>
+          <t>STFKW-2023-8352</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Assistant</t>
+          <t>Lecturer</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Certificate</t>
+          <t>Bachelors</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Faculty of Arts</t>
+          <t>Faculty of Science</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>History</t>
+          <t>Mathematics</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Private music teacher</t>
+          <t>Geoscientist</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2023-12-10</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Busisiwe</t>
+          <t>Simbarashe</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Moyo</t>
+          <t>Nkomo</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>busisiwe.moyo1@university.ac.zw</t>
+          <t>simbarashe.nkomo@university.ac.zw</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>+263 73 922 5672</t>
+          <t>+263 77 364 8926</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>STFKW-2025-9476</t>
+          <t>STFKW-2025-9525</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -6052,54 +6052,54 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>PhD</t>
+          <t>Masters</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Faculty of Education</t>
+          <t>Faculty of Arts</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Psychology of Education</t>
+          <t>Linguistics</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Publishing copy</t>
+          <t>Licensed conveyancer</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>2023-12-06</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Sipho</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Mugabe</t>
+          <t>Mpofu</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>brighton.mugabe@university.ac.zw</t>
+          <t>sipho.mpofu@university.ac.zw</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>+263 77 340 4594</t>
+          <t>+263 71 230 5773</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>STFKW-2025-2730</t>
+          <t>STFKW-2022-3717</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -6109,7 +6109,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Certificate</t>
+          <t>Masters</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -6119,74 +6119,74 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Electrical Engineering</t>
+          <t>Civil Engineering</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Media planner</t>
+          <t>Geophysicist/field seismologist</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>2021-06-22</t>
+          <t>2020-01-06</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Sipho</t>
+          <t>Lovemore</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Phiri</t>
+          <t>Mutasa</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>sipho.phiri@university.ac.zw</t>
+          <t>lovemore.mutasa@university.ac.zw</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>+263 78 683 8893</t>
+          <t>+263 78 812 9798</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>STFKW-2021-9939</t>
+          <t>STFKW-2022-9619</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Assistant</t>
+          <t>Lecturer</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Bachelors</t>
+          <t>PhD</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Faculty of Arts</t>
+          <t>Faculty of Engineering</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Philosophy</t>
+          <t>Mechanical Engineering</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Engineer, structural</t>
+          <t>Learning disability nurse</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>2024-01-15</t>
+          <t>2022-06-01</t>
         </is>
       </c>
     </row>
